--- a/Asset-Management-App/employees.xlsx
+++ b/Asset-Management-App/employees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,36 @@
           <t>Assigned Assets</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Abigael Nyabaga</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ict</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>intern</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Asset-Management-App/employees.xlsx
+++ b/Asset-Management-App/employees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,31 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Abigael Nyabaga</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ict</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>intern</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Asset-Management-App/employees.xlsx
+++ b/Asset-Management-App/employees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,99 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Abigael Nyabaga</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ict</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>759637188</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nyabagaabby@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abigael Nyabaga</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ict</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>759637188</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nyabagaabby@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abigael Nyabaga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ict</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>759637188</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nyabagaabby@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
